--- a/CH552Xiao_pin.xlsx
+++ b/CH552Xiao_pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akita\Documents\Dropbox\KiCAD\CH552Xiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD11F98-43B2-4F49-8277-70BB85EF1EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53295F8E-A8B7-4B2E-A86B-95FD5E61D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="21040" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22212" windowHeight="13176" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,29 +874,29 @@
   <dimension ref="A2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F2" sqref="F2:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
     <col min="15" max="15" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>10</v>
       </c>
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>11</v>
       </c>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>12</v>
       </c>
@@ -931,12 +931,12 @@
       <c r="I4" s="4">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
+      <c r="L4" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>13</v>
       </c>
@@ -946,12 +946,12 @@
       <c r="I5" s="4">
         <v>12</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>28</v>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>17</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>30</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>31</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>32</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>34</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>35</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>36</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -1212,7 +1212,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -1221,7 +1221,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -1230,7 +1230,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -1239,7 +1239,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -1248,7 +1248,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -1257,7 +1257,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -1266,7 +1266,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -1275,7 +1275,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -1287,7 +1287,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>